--- a/Userstorrys.xlsx
+++ b/Userstorrys.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10550" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Version 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Version 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
   <si>
     <t>Name</t>
   </si>
@@ -114,6 +117,123 @@
   </si>
   <si>
     <t>Warnung wird bei ausufernder Bepunktung relativ zur Hauptfrage angezeigt. Werte werden trotzdem gespeichert.</t>
+  </si>
+  <si>
+    <t>Als Übungsleiter möchte ich in der Activity TesFlow  einen Knopf haben, durch den weitere Fragen dem Baum hinzugefügt werden können.</t>
+  </si>
+  <si>
+    <t>Button wird angezeigt. Nach einem klick darauf wird das bekannte overlay zum Aussuchen und Erstellen des Fragetyp angezeigt.</t>
+  </si>
+  <si>
+    <t>Ich als Übungsleiter möchte die Fragen im Baum per drag&amp;drop sortieren können.</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Button erstellen</t>
+  </si>
+  <si>
+    <t>Button öffnet neue Frage</t>
+  </si>
+  <si>
+    <t>Pfeile zwischen Button</t>
+  </si>
+  <si>
+    <t>Kasten an Pfeilen Punkte</t>
+  </si>
+  <si>
+    <t>Kasten an Pfeilen Feedback</t>
+  </si>
+  <si>
+    <t>Speichern der visuellen Daten</t>
+  </si>
+  <si>
+    <t>Daten als Tabelle ausgeben</t>
+  </si>
+  <si>
+    <t>Neue Zeilen in der Tabelle</t>
+  </si>
+  <si>
+    <t>Aufgabe als Student aufrufen</t>
+  </si>
+  <si>
+    <t>Als Übungsleiter möchte ich, wenn ich in der Activity TesFlow den Knopf drücke, ein Overlay erhalten, an dem ich den Fragetypen aussuchen kann. Daraufhin soll das allgemeine Fragefenster erscheinen, um eine bekannte Frage zu nutzen.</t>
+  </si>
+  <si>
+    <t>Button wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Nach einem Klick auf den angezeigten Button wird das bekannte Overlay zum Aussuchen und Erstellen des Fragetyp angezeigt.</t>
+  </si>
+  <si>
+    <t>Als Fragesteller soll mir die Reihenfolge der Fragen mit Pfeilen verdeutlicht werden</t>
+  </si>
+  <si>
+    <t>Pfeile werden in korrekter Richtung zwischen den Buttons angezeitgt.</t>
+  </si>
+  <si>
+    <t>Als Fragesteller möchte ich die Bedingung für die Pfade auf den Pfeilen als farbiges Rechteck angezeigt bekommen.</t>
+  </si>
+  <si>
+    <t>Rechtecke werden mit passender Beschriftung angezeigt.</t>
+  </si>
+  <si>
+    <t>Als Fragesteller möchte ich Feedbackausgabe als farbiges Rechteck zwischen den Fragen angezeigt bekommen.</t>
+  </si>
+  <si>
+    <t>Farbiges Rechteck "Feedback" wird angezeigt.</t>
+  </si>
+  <si>
+    <t>WorkItem: Die Daten der Buttons und Labels müssen in einer DB hinterlegt werden.</t>
+  </si>
+  <si>
+    <t>Einrichten der Datenbank und speichern (falls nicht gesehen) implementieren.</t>
+  </si>
+  <si>
+    <t>Tabelle mit Spalten: Aufgabe, Punkte, Folgeaufgaben, Feedback wird angezeigt.</t>
+  </si>
+  <si>
+    <t>Als Fragesteller will ich die Reihenfolge der Fragen auch in einer Tabelle bearbeiten können. Dafür benötige ich zuerst eine Tabelle mit den bisherigen Daten.</t>
+  </si>
+  <si>
+    <t>Als Fragesteller will ich die Reihenfolge der Fragen auch in einer Tabelle bearbeiten können.  Dafür will ich die Tabele bearbeiten können und neue Zeilen hinzufügen können.</t>
+  </si>
+  <si>
+    <t>Tabelle wird editierbar. Neue Zeilen lassen sich hinzufügen.</t>
+  </si>
+  <si>
+    <t>Als Student will ich die verschiedenen Fragen der Teilbäume durchlaufen.</t>
+  </si>
+  <si>
+    <t>Fragen werden in definierter Reihenfolge ausgegeben.</t>
+  </si>
+  <si>
+    <t>Feedbackseite gestalten</t>
+  </si>
+  <si>
+    <t>Feedbackseite ausklappen</t>
+  </si>
+  <si>
+    <t>Es wird eine Seite benötigt, die das gesammelte Feedback geordnet anzeigt. Sie wird optional zwischendurch angezeigt. Auf jeden Fall am Ende aller Aufgaben.</t>
+  </si>
+  <si>
+    <t>Die Feedbackseite wird angezeigt und ist mit Informationen gefüllt.</t>
+  </si>
+  <si>
+    <t>Feedback lässt sich ausklappen.</t>
+  </si>
+  <si>
+    <t>Damit das Feedback Übersichtlicher wird, soll es ausklappbar sein. Dafür wird im Beschreibungstext das Stickwort 5x# benutzt. Auswerten und ausklappbar machen. Eine Überschrift wird von 5x# eingeschlossen.</t>
+  </si>
+  <si>
+    <t>Protokoll</t>
+  </si>
+  <si>
+    <t>Alle Aktionen des Nutzers sollen Detaliert aufgezeichnet werden. Protokolliert wird: verweildauer pro Webseite, Eingaben auf Seite, Pfade der Beantwortung, erreichte Punkte, Nutzername.</t>
+  </si>
+  <si>
+    <t>Datei wird vollständig angelegt.</t>
   </si>
 </sst>
 </file>
@@ -170,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -186,6 +306,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,26 +629,26 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B25"/>
+    <sheetView view="pageLayout" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="24.85546875" customWidth="1"/>
-    <col min="8" max="8" width="38.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="10" max="10" width="38.85546875" customWidth="1"/>
-    <col min="12" max="12" width="38.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="48.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="38.81640625" customWidth="1"/>
+    <col min="6" max="6" width="5.26953125" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" customWidth="1"/>
+    <col min="8" max="8" width="38.81640625" customWidth="1"/>
+    <col min="9" max="9" width="5.26953125" customWidth="1"/>
+    <col min="10" max="10" width="38.81640625" customWidth="1"/>
+    <col min="12" max="12" width="38.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -539,7 +662,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -553,7 +676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -567,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -581,7 +704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -595,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -609,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -623,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -635,7 +758,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -647,7 +770,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -659,8 +782,8 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -674,7 +797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -688,7 +811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -702,7 +825,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -716,7 +839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -730,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -742,7 +865,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -752,7 +875,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -762,7 +885,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -772,7 +895,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -782,8 +905,8 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -799,7 +922,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -807,7 +930,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -815,7 +938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -823,7 +946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -831,31 +954,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -867,4 +990,655 @@
     <oddHeader>&amp;C&amp;20User Storrys - Moodle Plugin Schleife</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.90625" customWidth="1"/>
+    <col min="2" max="2" width="37.6328125" customWidth="1"/>
+    <col min="4" max="4" width="19.90625" customWidth="1"/>
+    <col min="5" max="5" width="37.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="31" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.90625" style="6"/>
+    <col min="10" max="10" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="6">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Userstorrys.xlsx
+++ b/Userstorrys.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BP\org\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10550" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10545" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Version 1" sheetId="1" r:id="rId1"/>
     <sheet name="Version 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle2" sheetId="3" r:id="rId3"/>
+    <sheet name="Version 3 kein drucken" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -137,9 +136,6 @@
     <t>Button öffnet neue Frage</t>
   </si>
   <si>
-    <t>Pfeile zwischen Button</t>
-  </si>
-  <si>
     <t>Kasten an Pfeilen Punkte</t>
   </si>
   <si>
@@ -155,9 +151,6 @@
     <t>Neue Zeilen in der Tabelle</t>
   </si>
   <si>
-    <t>Aufgabe als Student aufrufen</t>
-  </si>
-  <si>
     <t>Als Übungsleiter möchte ich, wenn ich in der Activity TesFlow den Knopf drücke, ein Overlay erhalten, an dem ich den Fragetypen aussuchen kann. Daraufhin soll das allgemeine Fragefenster erscheinen, um eine bekannte Frage zu nutzen.</t>
   </si>
   <si>
@@ -203,9 +196,6 @@
     <t>Tabelle wird editierbar. Neue Zeilen lassen sich hinzufügen.</t>
   </si>
   <si>
-    <t>Als Student will ich die verschiedenen Fragen der Teilbäume durchlaufen.</t>
-  </si>
-  <si>
     <t>Fragen werden in definierter Reihenfolge ausgegeben.</t>
   </si>
   <si>
@@ -234,6 +224,86 @@
   </si>
   <si>
     <t>Datei wird vollständig angelegt.</t>
+  </si>
+  <si>
+    <t>Demo der Grundfunktionalität</t>
+  </si>
+  <si>
+    <t>Eine Demo mit 3 Fragen erstellen:
+Frage 1: Antwort wahr   =&gt; Frage 2
+Frage 1: Antwort falsch =&gt; Frage 3</t>
+  </si>
+  <si>
+    <t>Baum ließt Fragen aus</t>
+  </si>
+  <si>
+    <t>Moodle Local aufsetzen</t>
+  </si>
+  <si>
+    <t>Moodle Style verstehen</t>
+  </si>
+  <si>
+    <t>Java Script  Beispiel Implementierung</t>
+  </si>
+  <si>
+    <t>Dominik Wittenberg</t>
+  </si>
+  <si>
+    <t>KW 52</t>
+  </si>
+  <si>
+    <t>1SP = 1h</t>
+  </si>
+  <si>
+    <t>Alternativer Ansatz über question_type</t>
+  </si>
+  <si>
+    <t>Datenbank für Fragereihenfolge - Question Behaviour</t>
+  </si>
+  <si>
+    <t>Robin Voigt</t>
+  </si>
+  <si>
+    <t>KW 3</t>
+  </si>
+  <si>
+    <t>KW 49</t>
+  </si>
+  <si>
+    <t>Datenbank für Activity Module</t>
+  </si>
+  <si>
+    <t>Hinzufügen von Fragen</t>
+  </si>
+  <si>
+    <t>Bearbeiten von Fragen</t>
+  </si>
+  <si>
+    <t>Java Script  durch HTML ersetzen</t>
+  </si>
+  <si>
+    <t>Anzeige beim Studenten: Links zu Fragen und Zurückbutton deaktivieren.</t>
+  </si>
+  <si>
+    <t>Fragen sortieren: Letzten Schritt rückgängig machen.</t>
+  </si>
+  <si>
+    <t>Fragen sortieren: Speichern/Überprüfen Knopf. Prüfen auf Kreis oder abgespaltene Pfade.</t>
+  </si>
+  <si>
+    <t>Fragen sortieren: Root soll veränderbar sein.</t>
+  </si>
+  <si>
+    <t>Fragen sortieren: Kontrolle, ob alle Bepunktungsmöglichkeiten bedient wurden.</t>
+  </si>
+  <si>
+    <t>Fragen sortieren: Punkte sollen eigener Knoten sein.</t>
+  </si>
+  <si>
+    <t>Feedback: Bitte Standard Eingabeformular nutzen. Alternativ MarkDown mit Video, Bilder, Gif und Link. + Ausklappbarkeit beachten.</t>
+  </si>
+  <si>
+    <t>Pavel Azanov</t>
   </si>
 </sst>
 </file>
@@ -290,7 +360,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,11 +380,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -325,6 +441,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:K34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A3:K34"/>
+  <sortState ref="A4:K21">
+    <sortCondition ref="A3:A21"/>
+  </sortState>
+  <tableColumns count="11">
+    <tableColumn id="1" name="#" dataDxfId="12"/>
+    <tableColumn id="2" name="Name" dataDxfId="11"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="10"/>
+    <tableColumn id="4" name="Akzeptanzkriterium" dataDxfId="9"/>
+    <tableColumn id="5" name="Story Points" dataDxfId="8"/>
+    <tableColumn id="6" name="Priorität" dataDxfId="7"/>
+    <tableColumn id="7" name="Entwickler" dataDxfId="6"/>
+    <tableColumn id="8" name="Umgesetzte Iteration" dataDxfId="5"/>
+    <tableColumn id="10" name="Tatsächlicher Aufwand (Std.)" dataDxfId="4"/>
+    <tableColumn id="11" name="Velocity" dataDxfId="3"/>
+    <tableColumn id="12" name="Bemerkung" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,26 +768,26 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="70" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection sqref="A1:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="5" width="38.81640625" customWidth="1"/>
-    <col min="6" max="6" width="5.26953125" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" customWidth="1"/>
-    <col min="8" max="8" width="38.81640625" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" customWidth="1"/>
-    <col min="10" max="10" width="38.81640625" customWidth="1"/>
-    <col min="12" max="12" width="38.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="38.85546875" customWidth="1"/>
+    <col min="12" max="12" width="38.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,7 +801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -690,7 +829,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -704,7 +843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -718,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -732,7 +871,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -746,7 +885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -758,7 +897,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -770,7 +909,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -782,8 +921,8 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,7 +936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -811,7 +950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -825,7 +964,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,7 +978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -853,7 +992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -865,7 +1004,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -875,7 +1014,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -885,7 +1024,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -895,7 +1034,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -905,8 +1044,8 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -914,7 +1053,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -922,7 +1061,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -930,7 +1069,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -946,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -954,31 +1093,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B32" s="4"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>13</v>
       </c>
@@ -1000,15 +1139,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="2" width="37.6328125" customWidth="1"/>
-    <col min="4" max="4" width="19.90625" customWidth="1"/>
-    <col min="5" max="5" width="37.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1023,7 +1162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1038,7 +1177,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1192,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1098,7 +1237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1265,7 @@
       </c>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1278,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1152,14 +1291,14 @@
       </c>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1313,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
@@ -1189,7 +1328,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1204,7 +1343,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1247,7 +1386,7 @@
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1258,7 +1397,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1408,7 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1280,7 +1419,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
@@ -1291,7 +1430,7 @@
       </c>
       <c r="E21" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1438,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>1</v>
       </c>
@@ -1307,7 +1446,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1315,7 +1454,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1323,7 +1462,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1339,25 +1478,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
@@ -1370,275 +1509,496 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="6" customWidth="1"/>
     <col min="2" max="2" width="27" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.54296875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="6" customWidth="1"/>
     <col min="4" max="4" width="31" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.90625" style="6"/>
-    <col min="10" max="10" width="24.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="6">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="6">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="116" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="E5" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="6">
+        <v>10</v>
+      </c>
+      <c r="H7" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="E9" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="116" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="E13" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>68</v>
+      <c r="D17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="6">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="6">
+        <v>10</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I23" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Userstorrys.xlsx
+++ b/Userstorrys.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Java Script  durch HTML ersetzen</t>
   </si>
   <si>
-    <t>Anzeige beim Studenten: Links zu Fragen und Zurückbutton deaktivieren.</t>
-  </si>
-  <si>
     <t>Fragen sortieren: Letzten Schritt rückgängig machen.</t>
   </si>
   <si>
@@ -304,6 +301,15 @@
   </si>
   <si>
     <t>Pavel Azanov</t>
+  </si>
+  <si>
+    <t>Anzeige beim Studenten: Anzeige aller abzuarbeitenden Fragen deaktivieren.</t>
+  </si>
+  <si>
+    <t>Anzeige beim Studenten: Anzeige des Buttons "Letzte Frage" deaktivieren.</t>
+  </si>
+  <si>
+    <t>KW 5</t>
   </si>
 </sst>
 </file>
@@ -444,23 +450,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:K34" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A3:K34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A3:K35" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A3:K35"/>
   <sortState ref="A4:K21">
     <sortCondition ref="A3:A21"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" name="#" dataDxfId="12"/>
-    <tableColumn id="2" name="Name" dataDxfId="11"/>
-    <tableColumn id="3" name="Beschreibung" dataDxfId="10"/>
-    <tableColumn id="4" name="Akzeptanzkriterium" dataDxfId="9"/>
-    <tableColumn id="5" name="Story Points" dataDxfId="8"/>
-    <tableColumn id="6" name="Priorität" dataDxfId="7"/>
-    <tableColumn id="7" name="Entwickler" dataDxfId="6"/>
-    <tableColumn id="8" name="Umgesetzte Iteration" dataDxfId="5"/>
-    <tableColumn id="10" name="Tatsächlicher Aufwand (Std.)" dataDxfId="4"/>
-    <tableColumn id="11" name="Velocity" dataDxfId="3"/>
-    <tableColumn id="12" name="Bemerkung" dataDxfId="2"/>
+    <tableColumn id="1" name="#" dataDxfId="10"/>
+    <tableColumn id="2" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" name="Beschreibung" dataDxfId="8"/>
+    <tableColumn id="4" name="Akzeptanzkriterium" dataDxfId="7"/>
+    <tableColumn id="5" name="Story Points" dataDxfId="6"/>
+    <tableColumn id="6" name="Priorität" dataDxfId="5"/>
+    <tableColumn id="7" name="Entwickler" dataDxfId="4"/>
+    <tableColumn id="8" name="Umgesetzte Iteration" dataDxfId="3"/>
+    <tableColumn id="10" name="Tatsächlicher Aufwand (Std.)" dataDxfId="2"/>
+    <tableColumn id="11" name="Velocity" dataDxfId="1"/>
+    <tableColumn id="12" name="Bemerkung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1509,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1799,7 +1805,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -1939,12 +1945,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1952,7 +1958,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1960,7 +1966,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -1968,7 +1974,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -1976,23 +1982,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
